--- a/bot/proposal.xlsx
+++ b/bot/proposal.xlsx
@@ -1,64 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>yest_datetime</t>
-  </si>
-  <si>
-    <t>message.text</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>chat.id</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,22 +55,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,31 +423,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>yest_datetime</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>message.text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>chat.id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.82109982639</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>📝Зазначте одним повідомленням, який вид допомоги Ви можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.82876532408</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>📝Зазначте одним повідомленням, який вид допомоги Ви можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.85000748843</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Наша команда зв'яжеться з Вами для подальшої комунікації.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.85378773148</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.86173861111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>аших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.88427435515</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>их проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного т</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>759572442</v>
       </c>
     </row>
   </sheetData>
@@ -413,24 +612,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bot/proposal.xlsx
+++ b/bot/proposal.xlsx
@@ -1,44 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>yest_datetime</t>
+  </si>
+  <si>
+    <t>message.text</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>chat.id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -55,85 +75,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,187 +380,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>yest_datetime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>message.text</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>last_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>chat.id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45011.82109982639</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>📝Зазначте одним повідомленням, який вид допомоги Ви можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45011.82876532408</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>📝Зазначте одним повідомленням, який вид допомоги Ви можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45011.85000748843</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Наша команда зв'яжеться з Вами для подальшої комунікації.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45011.85378773148</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>можете надати для реалізації наших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45011.86173861111</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>аших проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного телефону!</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45011.88427435515</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>их проєктів? Обов'язково вкажіть ваше Ім'я і номер мобільного т</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>759572442</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -612,36 +413,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
